--- a/Excel/PvPLevelConfig.xlsx
+++ b/Excel/PvPLevelConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28345" windowHeight="14297"/>
+    <workbookView windowWidth="28345" windowHeight="14897"/>
   </bookViews>
   <sheets>
     <sheet name="StartMachineConfig" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>Id</t>
   </si>
@@ -25,13 +25,22 @@
     <t>列数</t>
   </si>
   <si>
+    <t>宝石间距</t>
+  </si>
+  <si>
     <t>HangCount</t>
   </si>
   <si>
     <t>LieCount</t>
   </si>
   <si>
+    <t>Distance</t>
+  </si>
+  <si>
     <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
   </si>
 </sst>
 </file>
@@ -39,9 +48,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -66,6 +75,29 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -73,37 +105,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -117,74 +173,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -195,7 +183,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,6 +191,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -212,6 +207,20 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,25 +241,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -262,157 +415,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,69 +432,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -513,6 +459,69 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -526,148 +535,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1037,7 +1046,7 @@
   <dimension ref="C3:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.85" outlineLevelRow="5" outlineLevelCol="5"/>
@@ -1059,31 +1068,37 @@
       <c r="E3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="4"/>
+      <c r="F3" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="4" spans="3:6">
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" spans="3:6">
       <c r="C5" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="3:6">
       <c r="C6" s="5">
@@ -1095,7 +1110,9 @@
       <c r="E6" s="5">
         <v>8</v>
       </c>
-      <c r="F6" s="5"/>
+      <c r="F6" s="5">
+        <v>1.1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/PvPLevelConfig.xlsx
+++ b/Excel/PvPLevelConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28345" windowHeight="14897"/>
+    <workbookView windowWidth="28345" windowHeight="14297"/>
   </bookViews>
   <sheets>
     <sheet name="StartMachineConfig" sheetId="1" r:id="rId1"/>
@@ -48,10 +48,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -83,21 +83,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -106,6 +91,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -113,6 +105,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -120,7 +127,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,46 +188,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,115 +241,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -361,61 +409,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,21 +445,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -470,6 +455,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -498,6 +494,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -512,171 +532,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1111,7 +1111,7 @@
         <v>8</v>
       </c>
       <c r="F6" s="5">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>
